--- a/meta/2-1-2-c.xlsx
+++ b/meta/2-1-2-c.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -97,12 +97,6 @@
     <t>Цель 2.: «Ликвидация голода, обеспечение продовольственной безопасности и улучшение питания и содействие устойчивому развитию сельского хозяйства»</t>
   </si>
   <si>
-    <t>2.1.  «К 2030 году покончить с голодом и обеспечить всем, особенно малоимущим и уязвимым группам населения, включая младенцев, круглогодичный доступ к безопасной, питательной и достаточной пище»</t>
-  </si>
-  <si>
-    <t>2.1.2.c «Отношение объема импорта продукции сельского хозяйства к объему производства в республике»</t>
-  </si>
-  <si>
     <t xml:space="preserve">Национальный cтатистический комитет
 Кыргызской Республики отдел статистики сельского хозяйства
 </t>
@@ -120,60 +114,52 @@
     <t>www.stat.gov.kg</t>
   </si>
   <si>
-    <t>Отношение объема импорта продукции сельского хозяйства и продуктов их переработки к объему производства продукции сельского хозяйства   в республике.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Импорт - охватывает всю продукцию сельского хозяйства и продукцию их переработки, поступающие на территорию республики из других стран. Сведения по импорту берутся из официальной статистики внешней торговли на основании данных грузовых таможенных деклараций и таможенных приходных ордеров. Данные берутся по весу нетто, т.е. за исключением массы упаковки, и приводятся по исходным продуктам переработки с пересчетом в исходные продукты. Коэффициенты пересчета по продуктам переработки в исходные продукты, установленные по данным перерабатывающих предприятий Кыргызской Республики. Показатели импорта в натуральном выражении используются при расчете продовольственных балансов.
-Продовольственные балансы – система статистических показателей, характеризующих источники формирования ресурсов основных видов сельскохозяйственной продукции и каналы их использования.
-Балансы отражают движение сельскохозяйственной продукции от момента производства до момента конечного ее использования, позволяют осуществлять текущий анализ соотношения ресурсов и их использования, прогнозировать развитие ситуации на рынке продовольствия.
-Объем производства продукции животноводства – количество сырых продуктов, полученных в результате выращивания и хозяйственного использования сельскохозяйственных животных и птиц (мясо, молока и яиц).
-Объем производства продукции растениеводства – количество сырых продуктов, полученных из урожая отчетного года (зерновых и зернобобовых культур, масличных культур, картофеля, овощей, плодов и ягод).</t>
-  </si>
-  <si>
-    <t>Охват данных 
-По показателю импорта:
-­	декларации на товары в том числе (ДТ), в том числе грузовых таможенных деклараций и таможенных приходных ордеров; 
-­	 хозяйственные субъекты импортирующие товары, не учитываемые таможенными органами;
-­	анкета обследования оборотов товаров на пограничных пунктах пропуска государственной границы Кыргызской Республики с Республикой Казахстан, осуществляющих физическими лицами.
-По показателю производство:
-­	хозяйствующие субъекты осуществляющих сельскохозяйственную деятельность: государственные и коллективные хозяйства, крестьянские (фермерские) хозяйства, индивидуальные предприниматели и личные подсобные хозяйства граждан;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Источниками информации по импорту и производству продукции сельского хозяйства для расчета показателя ЦУР 2.1.2.c «Отношение объема импорта продукции сельского хозяйства к объему производства в республике» является формы государственной статистической отчетности и административные источники: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">По импорту:
-­	-декларации на товары (ДТ), периодичность - месячная, квартальная и 
-годовая, информацию предоставляет государственная таможенная служба при Правительстве Кыргызской Республики
-­	-№ 1-В «Отчет о ввозе и вывозе продукции»; периодичность месячная, 
-предоставляет хозяйственные субъекты импортирующие товары, не учитываемые таможенными органами;
-­	-анкета обследования оборотов товаров на пограничных пунктах пропуска 
-государственной границы Кыргызской Республики с Республикой Казахстан, осуществляющих физическими лицами, периодичность – месячная, предоставляет - районные статистические органы, проводившие обследование на пунктах пропуска на государственной границе Кыргызской Республики с Республикой Казахстан
-По производству:
-­	-статистическая отчетность формы №29 - сх - «О сборе урожая сельскохозяйственных культур со всех земель и с орошаемых земель», (годовая). Показатель валовый сбор сельскохозяйственных культур.
-­           -статистическая отчетность формы №24 - «Отчет о состоянии животноводства на 1 января ____г.» (годовая). Показатель производство продукции животноводства. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расчет индикатора ЦУР 2.1.2.c «Отношение объема импорта продукции сельского хозяйства к объему производства в республике».
- Доля объема импорта к объему производства в%, рассчитывается по формуле: 
-DI=Icx/Pcx*100  , где 
-Iсх = импорт основных сельскохозяйственных продуктов и продуктов переработки 
-Pсх= производство основных сельскохозяйственных продуктов и продуктов питания 
-Дополнительно производится расчет доли объема продуктов переработки импорта к объему импорта в %,  и рассчитывается по формуле: 
-DIp=Ip/Iсх*100  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Проводится логический и арифметический контроль отчетных данных, анализ выходных таблиц.  заложенного в программном обеспечении по вводу и разработке данных. </t>
   </si>
   <si>
     <t xml:space="preserve">Имеются динамические ряды с 2018 года. </t>
+  </si>
+  <si>
+    <t>2.3.  «К 2030 году удвоить продуктивность сельского хозяйства и доходы мелких производителей продовольствия, в частности женщин, представителей коренных народов, фермерских семейных хозяйств, скотоводов и рыбаков, (рыбоводство или рыбных хозяйств) в том числе посредством обеспечения гарантированного и равного доступа к земле, другим производственным ресурсам и факторам сельскохозяйственного производства, знаниям, финансовым услугам, рынкам и возможностям для увеличения добавленной стоимости и занятости в несельскохозяйственных секторах»</t>
+  </si>
+  <si>
+    <t>2.3.2.a «Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции»</t>
+  </si>
+  <si>
+    <t>Определении доли произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции, в %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Национальной стратегией устойчивого развития Кыргызской Республики, предусмотрены следующие меры в целях развития кооперации: использование механизма государственной помощи, при котором она будет увязана с показателями эффективности деятельности сельского товаропроизводителя - получателя помощи; при государственной поддержке аграрного сектора предпочтение будет отдаваться сельхозкооперативам, которые гарантируют сохранение уровня, а в перспективе - рост объемов производства сельскохозяйственной продукции, создание рабочих мест. При этом все формы кооперации будут иметь преимущественное право на государственную поддержку.
+  Развитие сельхозкооперативов в Кыргызской Республике находится на начальном этапе и играет важную роль в укреплении экономики, конкурентоспособности, улучшении условий хозяйствования и создании стимулов для роста товарной продукции.         
+Разработанная методика расчета индикатора ЦУР 2.3.2.a  будет служить информационной базой для реализации социально-экономической политики в сфере обеспечения продовольственной безопасности страны, позволит обеспечить продовольственную безопасность Кыргызстана, как важнейшую составную часть национальной    стратегией устойчивого развития, создавать условия для динамичного развития отечественного агропромышленного сектора, улучшения благосостояния населения.</t>
+  </si>
+  <si>
+    <t>Сельскохозяйственный кооператив который производит продукцию животноводства ежегодно один раз в год отчитываются по  статистической отчетности Форма №24(годовая) «Отчет о состоянии животноводства на 1 января»;
+Сельскохозяйственный  кооператив который производит продукцию растениеводства ежегодно один раз в год отчитываются по  статистической отчетности Форма №29(годовая) «О сборе урожая сельскохозяйственных культур со всех земель и с орошаемых земель».</t>
+  </si>
+  <si>
+    <t>Статистическая отчетность:
+- форма №24(годовая) «Отчет  о состоянии животноводства на 1 января»;
+- форма №29(годовая) «О сборе урожая сельскохозяйственных культур со всех земель и с орошаемых земель».</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - сельскохозяйственные кооперативы (юридические лица) самостоятельно представляют отчеты по государственным формам статистической отчетности сельского хозяйства в статистические органы по территории.
+  - сбор информации по отрасли растениеводства:
+- сбор информации по отрасли животноводства (поголовье скота и их продукция):</t>
+  </si>
+  <si>
+    <t>Расчет дополнительного национального индикатора ЦУР 2.3.2.a  Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции в республики рассчитывается по формуле:
+Дсхк=СПсхк/СВПсх*100
+ , где 
+СПсхк = стоимость произведенной продукции сельскохозяйственных кооперативов;
+СВПсх = валовая стоимость продукции сельского хозяйства</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,17 +188,49 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,22 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -256,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -279,55 +283,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="2"/>
+    <cellStyle name="Обычный 2 3" xfId="4"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -631,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,11 +679,11 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -660,16 +691,16 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
+      <c r="B4" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,23 +714,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,8 +759,8 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,15 +768,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,16 +789,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>38</v>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -776,12 +807,12 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +840,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">

--- a/meta/2-1-2-c.xlsx
+++ b/meta/2-1-2-c.xlsx
@@ -123,15 +123,7 @@
     <t>2.3.  «К 2030 году удвоить продуктивность сельского хозяйства и доходы мелких производителей продовольствия, в частности женщин, представителей коренных народов, фермерских семейных хозяйств, скотоводов и рыбаков, (рыбоводство или рыбных хозяйств) в том числе посредством обеспечения гарантированного и равного доступа к земле, другим производственным ресурсам и факторам сельскохозяйственного производства, знаниям, финансовым услугам, рынкам и возможностям для увеличения добавленной стоимости и занятости в несельскохозяйственных секторах»</t>
   </si>
   <si>
-    <t>2.3.2.a «Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции»</t>
-  </si>
-  <si>
     <t>Определении доли произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции, в %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Национальной стратегией устойчивого развития Кыргызской Республики, предусмотрены следующие меры в целях развития кооперации: использование механизма государственной помощи, при котором она будет увязана с показателями эффективности деятельности сельского товаропроизводителя - получателя помощи; при государственной поддержке аграрного сектора предпочтение будет отдаваться сельхозкооперативам, которые гарантируют сохранение уровня, а в перспективе - рост объемов производства сельскохозяйственной продукции, создание рабочих мест. При этом все формы кооперации будут иметь преимущественное право на государственную поддержку.
-  Развитие сельхозкооперативов в Кыргызской Республике находится на начальном этапе и играет важную роль в укреплении экономики, конкурентоспособности, улучшении условий хозяйствования и создании стимулов для роста товарной продукции.         
-Разработанная методика расчета индикатора ЦУР 2.3.2.a  будет служить информационной базой для реализации социально-экономической политики в сфере обеспечения продовольственной безопасности страны, позволит обеспечить продовольственную безопасность Кыргызстана, как важнейшую составную часть национальной    стратегией устойчивого развития, создавать условия для динамичного развития отечественного агропромышленного сектора, улучшения благосостояния населения.</t>
   </si>
   <si>
     <t>Сельскохозяйственный кооператив который производит продукцию животноводства ежегодно один раз в год отчитываются по  статистической отчетности Форма №24(годовая) «Отчет о состоянии животноводства на 1 января»;
@@ -148,23 +140,39 @@
 - сбор информации по отрасли животноводства (поголовье скота и их продукция):</t>
   </si>
   <si>
-    <t>Расчет дополнительного национального индикатора ЦУР 2.3.2.a  Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции в республики рассчитывается по формуле:
+    <t>Расчет дополнительного национального индикатора ЦУР 2.3.2.c  Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции в республики рассчитывается по формуле:
 Дсхк=СПсхк/СВПсх*100
  , где 
 СПсхк = стоимость произведенной продукции сельскохозяйственных кооперативов;
 СВПсх = валовая стоимость продукции сельского хозяйства</t>
+  </si>
+  <si>
+    <t>2.3.2.c «Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Национальной стратегией устойчивого развития Кыргызской Республики, предусмотрены следующие меры в целях развития кооперации: использование механизма государственной помощи, при котором она будет увязана с показателями эффективности деятельности сельского товаропроизводителя - получателя помощи; при государственной поддержке аграрного сектора предпочтение будет отдаваться сельхозкооперативам, которые гарантируют сохранение уровня, а в перспективе - рост объемов производства сельскохозяйственной продукции, создание рабочих мест. При этом все формы кооперации будут иметь преимущественное право на государственную поддержку.
+  Развитие сельхозкооперативов в Кыргызской Республике находится на начальном этапе и играет важную роль в укреплении экономики, конкурентоспособности, улучшении условий хозяйствования и создании стимулов для роста товарной продукции.         
+Разработанная методика расчета индикатора ЦУР 2.3.2.c  будет служить информационной базой для реализации социально-экономической политики в сфере обеспечения продовольственной безопасности страны, позволит обеспечить продовольственную безопасность Кыргызстана, как важнейшую составную часть национальной    стратегией устойчивого развития, создавать условия для динамичного развития отечественного агропромышленного сектора, улучшения благосостояния населения.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,28 +307,36 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -328,27 +344,23 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -662,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -700,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,15 +772,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -798,7 +810,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -811,8 +823,8 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/meta/2-1-2-c.xlsx
+++ b/meta/2-1-2-c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -120,91 +120,65 @@
     <t xml:space="preserve">Имеются динамические ряды с 2018 года. </t>
   </si>
   <si>
-    <t>2.3.  «К 2030 году удвоить продуктивность сельского хозяйства и доходы мелких производителей продовольствия, в частности женщин, представителей коренных народов, фермерских семейных хозяйств, скотоводов и рыбаков, (рыбоводство или рыбных хозяйств) в том числе посредством обеспечения гарантированного и равного доступа к земле, другим производственным ресурсам и факторам сельскохозяйственного производства, знаниям, финансовым услугам, рынкам и возможностям для увеличения добавленной стоимости и занятости в несельскохозяйственных секторах»</t>
-  </si>
-  <si>
-    <t>Определении доли произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции, в %</t>
-  </si>
-  <si>
-    <t>Сельскохозяйственный кооператив который производит продукцию животноводства ежегодно один раз в год отчитываются по  статистической отчетности Форма №24(годовая) «Отчет о состоянии животноводства на 1 января»;
-Сельскохозяйственный  кооператив который производит продукцию растениеводства ежегодно один раз в год отчитываются по  статистической отчетности Форма №29(годовая) «О сборе урожая сельскохозяйственных культур со всех земель и с орошаемых земель».</t>
-  </si>
-  <si>
-    <t>Статистическая отчетность:
-- форма №24(годовая) «Отчет  о состоянии животноводства на 1 января»;
-- форма №29(годовая) «О сборе урожая сельскохозяйственных культур со всех земель и с орошаемых земель».</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - сельскохозяйственные кооперативы (юридические лица) самостоятельно представляют отчеты по государственным формам статистической отчетности сельского хозяйства в статистические органы по территории.
-  - сбор информации по отрасли растениеводства:
-- сбор информации по отрасли животноводства (поголовье скота и их продукция):</t>
-  </si>
-  <si>
-    <t>Расчет дополнительного национального индикатора ЦУР 2.3.2.c  Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции в республики рассчитывается по формуле:
-Дсхк=СПсхк/СВПсх*100
- , где 
-СПсхк = стоимость произведенной продукции сельскохозяйственных кооперативов;
-СВПсх = валовая стоимость продукции сельского хозяйства</t>
-  </si>
-  <si>
-    <t>2.3.2.c «Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Национальной стратегией устойчивого развития Кыргызской Республики, предусмотрены следующие меры в целях развития кооперации: использование механизма государственной помощи, при котором она будет увязана с показателями эффективности деятельности сельского товаропроизводителя - получателя помощи; при государственной поддержке аграрного сектора предпочтение будет отдаваться сельхозкооперативам, которые гарантируют сохранение уровня, а в перспективе - рост объемов производства сельскохозяйственной продукции, создание рабочих мест. При этом все формы кооперации будут иметь преимущественное право на государственную поддержку.
-  Развитие сельхозкооперативов в Кыргызской Республике находится на начальном этапе и играет важную роль в укреплении экономики, конкурентоспособности, улучшении условий хозяйствования и создании стимулов для роста товарной продукции.         
-Разработанная методика расчета индикатора ЦУР 2.3.2.c  будет служить информационной базой для реализации социально-экономической политики в сфере обеспечения продовольственной безопасности страны, позволит обеспечить продовольственную безопасность Кыргызстана, как важнейшую составную часть национальной    стратегией устойчивого развития, создавать условия для динамичного развития отечественного агропромышленного сектора, улучшения благосостояния населения.</t>
+    <t>2.1.  «К 2030 году покончить с голодом и обеспечить всем, особенно малоимущим и уязвимым группам населения, включая младенцев, круглогодичный доступ к безопасной, питательной и достаточной пище»</t>
+  </si>
+  <si>
+    <t>2.1.2.c «Отношение объема импорта продукции сельского хозяйства к объему производства в республике»</t>
+  </si>
+  <si>
+    <t>Отношение объема импорта продукции сельского хозяйства и продуктов их переработки к объему производства продукции сельского хозяйства   в республике.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Импорт - охватывает всю продукцию сельского хозяйства и продукцию их переработки, поступающие на территорию республики из других стран. Сведения по импорту берутся из официальной статистики внешней торговли на основании данных грузовых таможенных деклараций и таможенных приходных ордеров. Данные берутся по весу нетто, т.е. за исключением массы упаковки, и приводятся по исходным продуктам переработки с пересчетом в исходные продукты. Коэффициенты пересчета по продуктам переработки в исходные продукты, установленные по данным перерабатывающих предприятий Кыргызской Республики. Показатели импорта в натуральном выражении используются при расчете продовольственных балансов.
+Продовольственные балансы – система статистических показателей, характеризующих источники формирования ресурсов основных видов сельскохозяйственной продукции и каналы их использования.
+Балансы отражают движение сельскохозяйственной продукции от момента производства до момента конечного ее использования, позволяют осуществлять текущий анализ соотношения ресурсов и их использования, прогнозировать развитие ситуации на рынке продовольствия.
+Объем производства продукции животноводства – количество сырых продуктов, полученных в результате выращивания и хозяйственного использования сельскохозяйственных животных и птиц (мясо, молока и яиц).
+Объем производства продукции растениеводства – количество сырых продуктов, полученных из урожая отчетного года (зерновых и зернобобовых культур, масличных культур, картофеля, овощей, плодов и ягод).</t>
+  </si>
+  <si>
+    <t>Охват данных 
+По показателю импорта:
+­ декларации на товары в том числе (ДТ), в том числе грузовых таможенных деклараций и таможенных приходных ордеров; 
+­ хозяйственные субъекты импортирующие товары, не учитываемые таможенными органами;
+­ анкета обследования оборотов товаров на пограничных пунктах пропуска государственной границы Кыргызской Республики с Республикой Казахстан, осуществляющих физическими лицами.
+По показателю производство:
+­ хозяйствующие субъекты осуществляющих сельскохозяйственную деятельность: государственные и коллективные хозяйства, крестьянские (фермерские) хозяйства, индивидуальные предприниматели и личные подсобные хозяйства граждан;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Источниками информации по импорту и производству продукции сельского хозяйства для расчета показателя ЦУР 2.1.2.c «Отношение объема импорта продукции сельского хозяйства к объему производства в республике» является формы государственной статистической отчетности и административные источники: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">По импорту:
+­ -декларации на товары (ДТ), периодичность - месячная, квартальная и 
+годовая, информацию предоставляет государственная таможенная служба при Правительстве Кыргызской Республики
+­ -№ 1-В «Отчет о ввозе и вывозе продукции»; периодичность месячная, 
+предоставляет хозяйственные субъекты импортирующие товары, не учитываемые таможенными органами;
+­ -анкета обследования оборотов товаров на пограничных пунктах пропуска 
+государственной границы Кыргызской Республики с Республикой Казахстан, осуществляющих физическими лицами, периодичность – месячная, предоставляет - районные статистические органы, проводившие обследование на пунктах пропуска на государственной границе Кыргызской Республики с Республикой Казахстан
+По производству:
+­ -статистическая отчетность формы №29 - сх - «О сборе урожая сельскохозяйственных культур со всех земель и с орошаемых земель», (годовая). Показатель валовый сбор сельскохозяйственных культур.
+­           -статистическая отчетность формы №24 - «Отчет о состоянии животноводства на 1 января ____г.» (годовая). Показатель производство продукции животноводства. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расчет индикатора ЦУР 2.1.2.c «Отношение объема импорта продукции сельского хозяйства к объему производства в республике».
+ Доля объема импорта к объему производства в%, рассчитывается по формуле: 
+DI=Icx/Pcx*100  , где 
+Iсх = импорт основных сельскохозяйственных продуктов и продуктов переработки 
+Pсх= производство основных сельскохозяйственных продуктов и продуктов питания 
+Дополнительно производится расчет доли объема продуктов переработки импорта к объему импорта в %,  и рассчитывается по формуле: 
+DIp=Ip/Iсх*100  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,58 +279,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -365,12 +337,14 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="2"/>
-    <cellStyle name="Обычный 2 3" xfId="4"/>
-    <cellStyle name="Обычный 3" xfId="3"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 2 3" xfId="5"/>
+    <cellStyle name="Обычный 2 4" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="4"/>
+    <cellStyle name="Обычный 4" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -675,7 +649,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,11 +665,11 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -703,7 +677,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -711,8 +685,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>40</v>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +699,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -733,7 +707,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -749,7 +723,7 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -757,7 +731,7 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -771,24 +745,24 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>35</v>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
+      <c r="B14" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,16 +775,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -823,8 +797,8 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>39</v>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,7 +811,7 @@
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
     </row>

--- a/meta/2-1-2-c.xlsx
+++ b/meta/2-1-2-c.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -97,6 +97,12 @@
     <t>Цель 2.: «Ликвидация голода, обеспечение продовольственной безопасности и улучшение питания и содействие устойчивому развитию сельского хозяйства»</t>
   </si>
   <si>
+    <t>2.1.  «К 2030 году покончить с голодом и обеспечить всем, особенно малоимущим и уязвимым группам населения, включая младенцев, круглогодичный доступ к безопасной, питательной и достаточной пище»</t>
+  </si>
+  <si>
+    <t>2.1.2.c «Отношение объема импорта продукции сельского хозяйства к объему производства в республике»</t>
+  </si>
+  <si>
     <t xml:space="preserve">Национальный cтатистический комитет
 Кыргызской Республики отдел статистики сельского хозяйства
 </t>
@@ -112,18 +118,6 @@
   </si>
   <si>
     <t>www.stat.gov.kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проводится логический и арифметический контроль отчетных данных, анализ выходных таблиц.  заложенного в программном обеспечении по вводу и разработке данных. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имеются динамические ряды с 2018 года. </t>
-  </si>
-  <si>
-    <t>2.1.  «К 2030 году покончить с голодом и обеспечить всем, особенно малоимущим и уязвимым группам населения, включая младенцев, круглогодичный доступ к безопасной, питательной и достаточной пище»</t>
-  </si>
-  <si>
-    <t>2.1.2.c «Отношение объема импорта продукции сельского хозяйства к объему производства в республике»</t>
   </si>
   <si>
     <t>Отношение объема импорта продукции сельского хозяйства и продуктов их переработки к объему производства продукции сельского хозяйства   в республике.</t>
@@ -168,12 +162,18 @@
 Дополнительно производится расчет доли объема продуктов переработки импорта к объему импорта в %,  и рассчитывается по формуле: 
 DIp=Ip/Iсх*100  </t>
   </si>
+  <si>
+    <t xml:space="preserve">Проводится логический и арифметический контроль отчетных данных, анализ выходных таблиц.  заложенного в программном обеспечении по вводу и разработке данных. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имеются динамические ряды с 2018 года. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +220,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -242,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,30 +258,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -308,27 +283,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -337,14 +292,9 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 2 3" xfId="5"/>
-    <cellStyle name="Обычный 2 4" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="4"/>
-    <cellStyle name="Обычный 4" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -649,7 +599,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +619,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -677,16 +627,16 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>34</v>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,40 +649,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>27</v>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>31</v>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,24 +695,24 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>36</v>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>37</v>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>38</v>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -798,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,8 +761,8 @@
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>32</v>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +776,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
